--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N2">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O2">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P2">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q2">
-        <v>29.35538298736664</v>
+        <v>34.66360076742</v>
       </c>
       <c r="R2">
-        <v>29.35538298736664</v>
+        <v>311.97240690678</v>
       </c>
       <c r="S2">
-        <v>0.0083781204960332</v>
+        <v>0.008398356647718564</v>
       </c>
       <c r="T2">
-        <v>0.0083781204960332</v>
+        <v>0.00908334280392795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N3">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P3">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q3">
-        <v>27.36535098019004</v>
+        <v>36.15773520383999</v>
       </c>
       <c r="R3">
-        <v>27.36535098019004</v>
+        <v>325.41961683456</v>
       </c>
       <c r="S3">
-        <v>0.0078101589758492</v>
+        <v>0.008760358101661198</v>
       </c>
       <c r="T3">
-        <v>0.0078101589758492</v>
+        <v>0.009474869794220098</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N4">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O4">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P4">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q4">
-        <v>62.91815045095707</v>
+        <v>84.0053680155</v>
       </c>
       <c r="R4">
-        <v>62.91815045095707</v>
+        <v>756.0483121395</v>
       </c>
       <c r="S4">
-        <v>0.01795704202164632</v>
+        <v>0.02035296464584598</v>
       </c>
       <c r="T4">
-        <v>0.01795704202164632</v>
+        <v>0.02201299167315862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N5">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O5">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P5">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q5">
-        <v>63.69848068125875</v>
+        <v>75.20997756527998</v>
       </c>
       <c r="R5">
-        <v>63.69848068125875</v>
+        <v>676.8897980875199</v>
       </c>
       <c r="S5">
-        <v>0.0181797507731887</v>
+        <v>0.01822200236202253</v>
       </c>
       <c r="T5">
-        <v>0.0181797507731887</v>
+        <v>0.01970822399798876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N6">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O6">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P6">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q6">
-        <v>5.95792337701044</v>
+        <v>7.44734299572</v>
       </c>
       <c r="R6">
-        <v>5.95792337701044</v>
+        <v>44.68405797432001</v>
       </c>
       <c r="S6">
-        <v>0.001700410448748307</v>
+        <v>0.001804355034423637</v>
       </c>
       <c r="T6">
-        <v>0.001700410448748307</v>
+        <v>0.001301014472644113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N7">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O7">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P7">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q7">
-        <v>298.6175771745414</v>
+        <v>345.5728791225089</v>
       </c>
       <c r="R7">
-        <v>298.6175771745414</v>
+        <v>3110.15591210258</v>
       </c>
       <c r="S7">
-        <v>0.08522641468784439</v>
+        <v>0.08372598986824124</v>
       </c>
       <c r="T7">
-        <v>0.08522641468784439</v>
+        <v>0.09055484298562487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N8">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P8">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q8">
-        <v>278.3739803957629</v>
+        <v>360.4683985595732</v>
       </c>
       <c r="R8">
-        <v>278.3739803957629</v>
+        <v>3244.215587036159</v>
       </c>
       <c r="S8">
-        <v>0.07944882721236482</v>
+        <v>0.08733490186572387</v>
       </c>
       <c r="T8">
-        <v>0.07944882721236482</v>
+        <v>0.09445810480188131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N9">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O9">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P9">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q9">
-        <v>640.0347648693213</v>
+        <v>837.4772454149444</v>
       </c>
       <c r="R9">
-        <v>640.0347648693213</v>
+        <v>7537.2952087345</v>
       </c>
       <c r="S9">
-        <v>0.1826679755475567</v>
+        <v>0.2029054234306289</v>
       </c>
       <c r="T9">
-        <v>0.1826679755475567</v>
+        <v>0.2194547808704015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N10">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O10">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P10">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q10">
-        <v>647.9726726414332</v>
+        <v>749.7930945016354</v>
       </c>
       <c r="R10">
-        <v>647.9726726414332</v>
+        <v>6748.13785051472</v>
       </c>
       <c r="S10">
-        <v>0.1849334798957634</v>
+        <v>0.1816611569545828</v>
       </c>
       <c r="T10">
-        <v>0.1849334798957634</v>
+        <v>0.1964777910717673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N11">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O11">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P11">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q11">
-        <v>60.60696413329335</v>
+        <v>74.24502082491999</v>
       </c>
       <c r="R11">
-        <v>60.60696413329335</v>
+        <v>445.47012494952</v>
       </c>
       <c r="S11">
-        <v>0.01729742203077434</v>
+        <v>0.01798821098790827</v>
       </c>
       <c r="T11">
-        <v>0.01729742203077434</v>
+        <v>0.0129702427658424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N12">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O12">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P12">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q12">
-        <v>35.92190514717636</v>
+        <v>38.90783840491811</v>
       </c>
       <c r="R12">
-        <v>35.92190514717636</v>
+        <v>350.170545644263</v>
       </c>
       <c r="S12">
-        <v>0.0102522269901789</v>
+        <v>0.009426657822098623</v>
       </c>
       <c r="T12">
-        <v>0.0102522269901789</v>
+        <v>0.01019551420416411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N13">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P13">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q13">
-        <v>33.4867217590936</v>
+        <v>40.58491579793066</v>
       </c>
       <c r="R13">
-        <v>33.4867217590936</v>
+        <v>365.2642421813759</v>
       </c>
       <c r="S13">
-        <v>0.009557217837544919</v>
+        <v>0.009832983009341822</v>
       </c>
       <c r="T13">
-        <v>0.009557217837544919</v>
+        <v>0.0106349800568798</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N14">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O14">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P14">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q14">
-        <v>76.99234697458125</v>
+        <v>94.29104915623056</v>
       </c>
       <c r="R14">
-        <v>76.99234697458125</v>
+        <v>848.619442406075</v>
       </c>
       <c r="S14">
-        <v>0.02197386286879796</v>
+        <v>0.02284499711426046</v>
       </c>
       <c r="T14">
-        <v>0.02197386286879796</v>
+        <v>0.02470827911314566</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N15">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O15">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P15">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q15">
-        <v>77.9472297137516</v>
+        <v>84.41874441093242</v>
       </c>
       <c r="R15">
-        <v>77.9472297137516</v>
+        <v>759.7686996983919</v>
       </c>
       <c r="S15">
-        <v>0.02224638946645108</v>
+        <v>0.02045311818793999</v>
       </c>
       <c r="T15">
-        <v>0.02224638946645108</v>
+        <v>0.02212131393119402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N16">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O16">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P16">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q16">
-        <v>7.290654614018123</v>
+        <v>8.359201335361998</v>
       </c>
       <c r="R16">
-        <v>7.290654614018123</v>
+        <v>50.155208012172</v>
       </c>
       <c r="S16">
-        <v>0.00208077622007151</v>
+        <v>0.002025281636939432</v>
       </c>
       <c r="T16">
-        <v>0.00208077622007151</v>
+        <v>0.0014603116740161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N17">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O17">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P17">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q17">
-        <v>62.85930539119801</v>
+        <v>64.66078504920245</v>
       </c>
       <c r="R17">
-        <v>62.85930539119801</v>
+        <v>581.947065442822</v>
       </c>
       <c r="S17">
-        <v>0.0179402474527773</v>
+        <v>0.01566612590562354</v>
       </c>
       <c r="T17">
-        <v>0.0179402474527773</v>
+        <v>0.01694388533129648</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N18">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O18">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P18">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q18">
-        <v>58.59800756615493</v>
+        <v>67.44791343428265</v>
       </c>
       <c r="R18">
-        <v>58.59800756615493</v>
+        <v>607.0312209085439</v>
       </c>
       <c r="S18">
-        <v>0.01672405938045476</v>
+        <v>0.01634139615114528</v>
       </c>
       <c r="T18">
-        <v>0.01672405938045476</v>
+        <v>0.01767423191964157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N19">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O19">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P19">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q19">
-        <v>134.7279725680336</v>
+        <v>156.7019272081722</v>
       </c>
       <c r="R19">
-        <v>134.7279725680336</v>
+        <v>1410.31734487355</v>
       </c>
       <c r="S19">
-        <v>0.038451795667153</v>
+        <v>0.03796601169362637</v>
       </c>
       <c r="T19">
-        <v>0.038451795667153</v>
+        <v>0.04106259278770058</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N20">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O20">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P20">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q20">
-        <v>136.3989102721551</v>
+        <v>140.2951824172498</v>
       </c>
       <c r="R20">
-        <v>136.3989102721551</v>
+        <v>1262.656641755248</v>
       </c>
       <c r="S20">
-        <v>0.03892868664938</v>
+        <v>0.03399095742541044</v>
       </c>
       <c r="T20">
-        <v>0.03892868664938</v>
+        <v>0.0367633254313624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N21">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O21">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P21">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q21">
-        <v>12.75782793275193</v>
+        <v>13.892124129428</v>
       </c>
       <c r="R21">
-        <v>12.75782793275193</v>
+        <v>83.352744776568</v>
       </c>
       <c r="S21">
-        <v>0.003641125027537659</v>
+        <v>0.003365807661360187</v>
       </c>
       <c r="T21">
-        <v>0.003641125027537659</v>
+        <v>0.002426886281260497</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>27.2497543130253</v>
+        <v>27.68083366666667</v>
       </c>
       <c r="N22">
-        <v>27.2497543130253</v>
+        <v>83.042501</v>
       </c>
       <c r="O22">
-        <v>0.1550771982947007</v>
+        <v>0.1459618213622149</v>
       </c>
       <c r="P22">
-        <v>0.1550771982947007</v>
+        <v>0.1475036943464798</v>
       </c>
       <c r="Q22">
-        <v>116.6076191789806</v>
+        <v>118.6416032220187</v>
       </c>
       <c r="R22">
-        <v>116.6076191789806</v>
+        <v>711.8496193321121</v>
       </c>
       <c r="S22">
-        <v>0.03328018866786689</v>
+        <v>0.02874469111853292</v>
       </c>
       <c r="T22">
-        <v>0.03328018866786689</v>
+        <v>0.02072610902146637</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.4024650681888</v>
+        <v>28.873984</v>
       </c>
       <c r="N23">
-        <v>25.4024650681888</v>
+        <v>86.62195199999999</v>
       </c>
       <c r="O23">
-        <v>0.1445643533993526</v>
+        <v>0.1522533369252733</v>
       </c>
       <c r="P23">
-        <v>0.1445643533993526</v>
+        <v>0.1538616705619625</v>
       </c>
       <c r="Q23">
-        <v>108.7026671452532</v>
+        <v>123.755512367104</v>
       </c>
       <c r="R23">
-        <v>108.7026671452532</v>
+        <v>742.533074202624</v>
       </c>
       <c r="S23">
-        <v>0.03102408999313888</v>
+        <v>0.02998369779740117</v>
       </c>
       <c r="T23">
-        <v>0.03102408999313888</v>
+        <v>0.02161948398933971</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.4051021359999</v>
+        <v>67.08300833333334</v>
       </c>
       <c r="N24">
-        <v>58.4051021359999</v>
+        <v>201.249025</v>
       </c>
       <c r="O24">
-        <v>0.3323809639280799</v>
+        <v>0.3537306064080358</v>
       </c>
       <c r="P24">
-        <v>0.3323809639280799</v>
+        <v>0.3574672524750558</v>
       </c>
       <c r="Q24">
-        <v>249.9281215437878</v>
+        <v>287.5215303651334</v>
       </c>
       <c r="R24">
-        <v>249.9281215437878</v>
+        <v>1725.1291821908</v>
       </c>
       <c r="S24">
-        <v>0.07133028782292593</v>
+        <v>0.06966120952367402</v>
       </c>
       <c r="T24">
-        <v>0.07133028782292593</v>
+        <v>0.05022860803064941</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.1294601546944</v>
+        <v>60.05939466666666</v>
       </c>
       <c r="N25">
-        <v>59.1294601546944</v>
+        <v>180.178184</v>
       </c>
       <c r="O25">
-        <v>0.3365032547499003</v>
+        <v>0.3166948922501296</v>
       </c>
       <c r="P25">
-        <v>0.3365032547499003</v>
+        <v>0.3200403102098261</v>
       </c>
       <c r="Q25">
-        <v>253.0278068849064</v>
+        <v>257.4179288674347</v>
       </c>
       <c r="R25">
-        <v>253.0278068849064</v>
+        <v>1544.507573204608</v>
       </c>
       <c r="S25">
-        <v>0.0722149479651171</v>
+        <v>0.06236765732017379</v>
       </c>
       <c r="T25">
-        <v>0.0722149479651171</v>
+        <v>0.04496965577751359</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.53056822011943</v>
+        <v>5.947122</v>
       </c>
       <c r="N26">
-        <v>5.53056822011943</v>
+        <v>11.894244</v>
       </c>
       <c r="O26">
-        <v>0.03147422962796657</v>
+        <v>0.03135934305434628</v>
       </c>
       <c r="P26">
-        <v>0.03147422962796657</v>
+        <v>0.02112707240667584</v>
       </c>
       <c r="Q26">
-        <v>23.666503024095</v>
+        <v>25.489697930832</v>
       </c>
       <c r="R26">
-        <v>23.666503024095</v>
+        <v>101.958791723328</v>
       </c>
       <c r="S26">
-        <v>0.006754495900834749</v>
+        <v>0.006175687733714754</v>
       </c>
       <c r="T26">
-        <v>0.006754495900834749</v>
+        <v>0.002968617212912726</v>
       </c>
     </row>
   </sheetData>
